--- a/data/trans_camb/POLIPATOLOGIA_5-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Dificultad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.58733021997758</v>
+        <v>-5.485588698224449</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.887459930113118</v>
+        <v>-5.714887802008338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.342256541772577</v>
+        <v>3.90630439819759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06211583670206312</v>
+        <v>-0.05553431606677677</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3526669814721189</v>
+        <v>0.4388632177903581</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.7348892208616</v>
+        <v>12.82305781451729</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-2.052887624494453</v>
+        <v>-2.087335385549591</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.898091161244001</v>
+        <v>-1.886852402692406</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>9.841669565374394</v>
+        <v>9.817933838880919</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.6543302262876968</v>
+        <v>-0.2463679300609668</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.9428545563608802</v>
+        <v>-0.9602638348837258</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11.77999221633626</v>
+        <v>11.83715734685152</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.106518284180682</v>
+        <v>5.717806582217161</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.362880052549556</v>
+        <v>6.235284885152303</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>20.00703512910831</v>
+        <v>19.67006255248972</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.959965071459549</v>
+        <v>1.840470464006567</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.074552360923819</v>
+        <v>1.987295340673121</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>14.75403847498287</v>
+        <v>15.05243796903376</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.003318183799730886</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1.292709601430954</v>
+        <v>1.292709601430953</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5954580445636762</v>
+        <v>-0.580053312604677</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6163660810975812</v>
+        <v>-0.6100597697640254</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.476805544489606</v>
+        <v>0.4438832931345122</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.01516041700418992</v>
+        <v>-0.008368347066567148</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.02310103250507426</v>
+        <v>0.02622100699523831</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.054340303411809</v>
+        <v>1.011772717003514</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.193316931925295</v>
+        <v>-0.2016330919268298</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1813273273465154</v>
+        <v>-0.1758892939727342</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.9327260673132729</v>
+        <v>0.9398107845624705</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.08942137772105854</v>
+        <v>-0.03980747703606011</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.1390501838421965</v>
+        <v>-0.1589279279530338</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.786069206147172</v>
+        <v>1.949817622898269</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.6375493190415868</v>
+        <v>0.6300603939151941</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6868796440352484</v>
+        <v>0.6599412670993577</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.165082235469146</v>
+        <v>2.107108175839042</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2326880208168236</v>
+        <v>0.2242500266830168</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2521325525371939</v>
+        <v>0.2332541978294918</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.730369199288348</v>
+        <v>1.764223489788071</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.5177009700570133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5.926819693086485</v>
+        <v>5.926819693086484</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>4.066370982246743</v>
@@ -878,7 +878,7 @@
         <v>2.23025538685612</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>9.78033196101144</v>
+        <v>9.780331961011438</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5486215968594034</v>
+        <v>-0.6714609232679666</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8147570272764686</v>
+        <v>-0.9314297552237661</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4.165150312709502</v>
+        <v>4.054882664544761</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.886718158362196</v>
+        <v>1.971509179999843</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.307458882236913</v>
+        <v>1.386988245315999</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>10.84981886111095</v>
+        <v>10.52797421840907</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.369736054200139</v>
+        <v>1.176677921578593</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9971677757935541</v>
+        <v>0.7868274308742534</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>8.245525274657538</v>
+        <v>8.341811154886019</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.529632296328457</v>
+        <v>2.514782125866496</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.092679217450884</v>
+        <v>2.053093893809462</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.929105670347774</v>
+        <v>7.86659639762058</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6.39219648102608</v>
+        <v>6.322261780005404</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>5.8759752204704</v>
+        <v>6.004941185495853</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>15.28022150550928</v>
+        <v>15.29127691795563</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.061820891293925</v>
+        <v>3.973984323605175</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.674522597373965</v>
+        <v>3.500529771700652</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>11.38477522861631</v>
+        <v>11.35016103188216</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.1991728329274249</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>2.28019945257604</v>
+        <v>2.280199452576039</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.8429580523553506</v>
@@ -983,7 +983,7 @@
         <v>0.6026106006168049</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>2.642626379019731</v>
+        <v>2.64262637901973</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.1883629433575415</v>
+        <v>-0.2390283064945239</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2756127674303489</v>
+        <v>-0.3027693380677716</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.187994327137933</v>
+        <v>1.149827441648589</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3105811428410545</v>
+        <v>0.3039621827524577</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1801269384148147</v>
+        <v>0.2359491232935826</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.826781437105554</v>
+        <v>1.76742058854141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3185566849980524</v>
+        <v>0.2765612549780722</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2330122754139897</v>
+        <v>0.1841628607226671</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.864106705068015</v>
+        <v>1.924472536078944</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.293848252582035</v>
+        <v>1.258616912380498</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.111503628589468</v>
+        <v>1.017458402322582</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.98692836728271</v>
+        <v>3.971791768245103</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.641157326093353</v>
+        <v>1.554545161554672</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.501327712446116</v>
+        <v>1.545142666517707</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.991291690498954</v>
+        <v>3.961844028988732</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.292473883617079</v>
+        <v>1.232944101773882</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.128922313908436</v>
+        <v>1.070451848530626</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.567038567389724</v>
+        <v>3.616765961106124</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>1.581207185346108</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>6.130487099111448</v>
+        <v>6.130487099111451</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5963874306975673</v>
+        <v>0.540762169354712</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.11441016709065</v>
+        <v>-0.006201957748604115</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.099880032547351</v>
+        <v>2.952078010910948</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1122594486260699</v>
+        <v>0.2637955371873741</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-0.507233208231867</v>
+        <v>-0.4990913353766366</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>5.47686084780877</v>
+        <v>5.321867162999692</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.044304795554998</v>
+        <v>0.8378562831756272</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2915673399277227</v>
+        <v>0.2583460470546681</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.755432434611028</v>
+        <v>4.626787537244182</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.466190308261007</v>
+        <v>3.60622620160414</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.961846362541596</v>
+        <v>2.943044387584797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.097707356013616</v>
+        <v>6.073337616505586</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.699479166930734</v>
+        <v>4.82499289291044</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.301726464399302</v>
+        <v>4.113116955708864</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>9.739987210244241</v>
+        <v>9.740457072722833</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>3.727845051538099</v>
+        <v>3.625450230377783</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.991634755075874</v>
+        <v>3.123897564439573</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.393268053944152</v>
+        <v>7.366336181531627</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.477512266439566</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1.851359401984033</v>
+        <v>1.851359401984034</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.220653136080995</v>
+        <v>0.2237704372170332</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.00376201236170715</v>
+        <v>-0.01130232601949843</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>1.189118815639169</v>
+        <v>1.151442426301511</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.01756690250358891</v>
+        <v>0.03110473282784992</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.09424068558844106</v>
+        <v>-0.09313602674923317</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8488438889612682</v>
+        <v>0.8374774096749593</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2514378679819924</v>
+        <v>0.2260613320207057</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06595529061940227</v>
+        <v>0.06985569552625147</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.168367035717042</v>
+        <v>1.170299640741244</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.652156104571328</v>
+        <v>2.808768685251058</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.158678738480045</v>
+        <v>2.34580524069728</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>4.706050551449113</v>
+        <v>4.542818944643354</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.159130261034187</v>
+        <v>1.169713139413565</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.050511052455393</v>
+        <v>0.9942418548591666</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.467251916717035</v>
+        <v>2.48408121360967</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.287059575788815</v>
+        <v>1.318535403176934</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.046205374915333</v>
+        <v>1.111003443147732</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>2.809349907177998</v>
+        <v>2.721254972234218</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>-0.326655394903081</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>5.139676030793979</v>
+        <v>5.139676030793977</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.458850300534423</v>
+        <v>-2.657061091239993</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.086638985073985</v>
+        <v>-3.283602919444278</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.593674259831982</v>
+        <v>1.70218911827618</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.397523892972131</v>
+        <v>-3.182749727378626</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-3.679419698666202</v>
+        <v>-3.72716969363481</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.40419192334982</v>
+        <v>2.549175483038171</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-1.840406810907297</v>
+        <v>-1.859311611638059</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.660363110075024</v>
+        <v>-2.325059912847766</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>3.35587372901757</v>
+        <v>3.346223059467547</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.975130976578534</v>
+        <v>2.168887752599229</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.8569019780090461</v>
+        <v>1.005198858770759</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.099363918774777</v>
+        <v>6.24101116959995</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.883023593337891</v>
+        <v>4.194943204556224</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.674809996347403</v>
+        <v>3.249496040520404</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.651459990352961</v>
+        <v>8.557967751495825</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.234390662588709</v>
+        <v>2.093006844687922</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.607408125115779</v>
+        <v>1.665592922270677</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.947847406591934</v>
+        <v>6.895271579633076</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>-0.07544067949452998</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>1.187002138017312</v>
+        <v>1.187002138017311</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.6251195654530673</v>
+        <v>-0.6344716666807314</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7464215060527439</v>
+        <v>-0.7415072717546687</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3267441876774576</v>
+        <v>0.3100904176438383</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.4294153807335661</v>
+        <v>-0.3892454037231386</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4688092859047556</v>
+        <v>-0.4821191475601256</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2645884942778957</v>
+        <v>0.2750769275646109</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.3519230292252634</v>
+        <v>-0.340839343051811</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.4747290777837578</v>
+        <v>-0.4260949867487974</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.5875624923559266</v>
+        <v>0.593053065626349</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9992162104795367</v>
+        <v>1.244390975465485</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4802711059660748</v>
+        <v>0.5845967174672738</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.164264174351297</v>
+        <v>3.250398911171554</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8981121637005114</v>
+        <v>1.047813276101414</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9471825235469848</v>
+        <v>0.7930401602556194</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>2.044479573270402</v>
+        <v>2.153895700405454</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.709600192581185</v>
+        <v>0.626058999476184</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5042188100838972</v>
+        <v>0.5760916080948215</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>2.21231749012924</v>
+        <v>2.221712463305203</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>0.1384324259682601</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5.16099376741424</v>
+        <v>5.160993767414239</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.167834726227704</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.4666137546886927</v>
+        <v>-0.464475980174855</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.79156389674479</v>
+        <v>-0.812889882215604</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.04492856631039</v>
+        <v>4.229533663120291</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1.862901388475104</v>
+        <v>1.847036319279981</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.721064396877725</v>
+        <v>1.791478946461982</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.463305848324952</v>
+        <v>8.491054596593674</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>1.091751601681692</v>
+        <v>1.016674568162921</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.8261390424079735</v>
+        <v>0.865227636298019</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.713393127595622</v>
+        <v>6.662071407751015</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.473845606293029</v>
+        <v>1.408432435094396</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.9714330671677419</v>
+        <v>1.039490218095611</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.179668082223619</v>
+        <v>6.314177923831106</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.558925161695183</v>
+        <v>4.555561126327012</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.460443218443911</v>
+        <v>4.48825907402179</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>10.95721308587777</v>
+        <v>11.07996749430048</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.80723373505077</v>
+        <v>2.674076176855044</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>2.518685351594064</v>
+        <v>2.54026736028853</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>8.409219050392428</v>
+        <v>8.309410206531378</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1253355267987759</v>
+        <v>-0.1313552552971486</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2157343035561992</v>
+        <v>-0.2101168524070147</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.031521819330262</v>
+        <v>1.093653725177948</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.2531169673353793</v>
+        <v>0.2526950729679502</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.2394289529456421</v>
+        <v>0.24217314921665</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>1.15095381717593</v>
+        <v>1.139020837078304</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1992394040470229</v>
+        <v>0.1887464565561442</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1520095773425635</v>
+        <v>0.1553261553885491</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.228774115372665</v>
+        <v>1.205836095046121</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.520492291691067</v>
+        <v>0.4666839458073223</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3304648576937138</v>
+        <v>0.352666678524145</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.168651763564028</v>
+        <v>2.171152081060833</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.7454644154870563</v>
+        <v>0.7654756792797826</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7265321273282267</v>
+        <v>0.7456772356310261</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.846144440200508</v>
+        <v>1.86310937381105</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.6047594257076594</v>
+        <v>0.572971160154068</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.5454238955006626</v>
+        <v>0.5495246338202849</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.833582312371425</v>
+        <v>1.792532290195465</v>
       </c>
     </row>
     <row r="34">
